--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.5524591654254</v>
+        <v>161.279784</v>
       </c>
       <c r="H2">
-        <v>21.5524591654254</v>
+        <v>483.839352</v>
       </c>
       <c r="I2">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="J2">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>2274.144615626904</v>
+        <v>18146.13555886733</v>
       </c>
       <c r="R2">
-        <v>2274.144615626904</v>
+        <v>163315.2200298059</v>
       </c>
       <c r="S2">
-        <v>0.01727379394360322</v>
+        <v>0.09904512379068982</v>
       </c>
       <c r="T2">
-        <v>0.01727379394360322</v>
+        <v>0.09904512379068982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.5524591654254</v>
+        <v>161.279784</v>
       </c>
       <c r="H3">
-        <v>21.5524591654254</v>
+        <v>483.839352</v>
       </c>
       <c r="I3">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="J3">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>2288.343019767882</v>
+        <v>17146.37411255534</v>
       </c>
       <c r="R3">
-        <v>2288.343019767882</v>
+        <v>154317.3670129981</v>
       </c>
       <c r="S3">
-        <v>0.01738164122199261</v>
+        <v>0.09358823210761509</v>
       </c>
       <c r="T3">
-        <v>0.01738164122199261</v>
+        <v>0.0935882321076151</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.5524591654254</v>
+        <v>161.279784</v>
       </c>
       <c r="H4">
-        <v>21.5524591654254</v>
+        <v>483.839352</v>
       </c>
       <c r="I4">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="J4">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>2669.583228453635</v>
+        <v>20110.24323876245</v>
       </c>
       <c r="R4">
-        <v>2669.583228453635</v>
+        <v>180992.189148862</v>
       </c>
       <c r="S4">
-        <v>0.02027743982802744</v>
+        <v>0.1097656040638792</v>
       </c>
       <c r="T4">
-        <v>0.02027743982802744</v>
+        <v>0.1097656040638792</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>287.958853577137</v>
+        <v>288.7700093333333</v>
       </c>
       <c r="H5">
-        <v>287.958853577137</v>
+        <v>866.3100279999999</v>
       </c>
       <c r="I5">
-        <v>0.7339490860623428</v>
+        <v>0.541442630470476</v>
       </c>
       <c r="J5">
-        <v>0.7339490860623428</v>
+        <v>0.5414426304704759</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>30384.4712734718</v>
+        <v>32490.49325796499</v>
       </c>
       <c r="R5">
-        <v>30384.4712734718</v>
+        <v>292414.4393216849</v>
       </c>
       <c r="S5">
-        <v>0.230792312967572</v>
+        <v>0.1773394074080522</v>
       </c>
       <c r="T5">
-        <v>0.230792312967572</v>
+        <v>0.1773394074080522</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>287.958853577137</v>
+        <v>288.7700093333333</v>
       </c>
       <c r="H6">
-        <v>287.958853577137</v>
+        <v>866.3100279999999</v>
       </c>
       <c r="I6">
-        <v>0.7339490860623428</v>
+        <v>0.541442630470476</v>
       </c>
       <c r="J6">
-        <v>0.7339490860623428</v>
+        <v>0.5414426304704759</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>30574.1738103229</v>
+        <v>30700.42933908834</v>
       </c>
       <c r="R6">
-        <v>30574.1738103229</v>
+        <v>276303.8640517951</v>
       </c>
       <c r="S6">
-        <v>0.2322332426734612</v>
+        <v>0.1675688917044071</v>
       </c>
       <c r="T6">
-        <v>0.2322332426734612</v>
+        <v>0.1675688917044071</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>287.958853577137</v>
+        <v>288.7700093333333</v>
       </c>
       <c r="H7">
-        <v>287.958853577137</v>
+        <v>866.3100279999999</v>
       </c>
       <c r="I7">
-        <v>0.7339490860623428</v>
+        <v>0.541442630470476</v>
       </c>
       <c r="J7">
-        <v>0.7339490860623428</v>
+        <v>0.5414426304704759</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N7">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q7">
-        <v>35667.86138388621</v>
+        <v>36007.21047439545</v>
       </c>
       <c r="R7">
-        <v>35667.86138388621</v>
+        <v>324064.894269559</v>
       </c>
       <c r="S7">
-        <v>0.2709235304213096</v>
+        <v>0.1965343313580167</v>
       </c>
       <c r="T7">
-        <v>0.2709235304213096</v>
+        <v>0.1965343313580167</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.83041646653609</v>
+        <v>83.28466000000002</v>
       </c>
       <c r="H8">
-        <v>82.83041646653609</v>
+        <v>249.85398</v>
       </c>
       <c r="I8">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="J8">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N8">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q8">
-        <v>8739.993156775765</v>
+        <v>9370.639598166721</v>
       </c>
       <c r="R8">
-        <v>8739.993156775765</v>
+        <v>84335.75638350048</v>
       </c>
       <c r="S8">
-        <v>0.06638664921361155</v>
+        <v>0.05114676653811438</v>
       </c>
       <c r="T8">
-        <v>0.06638664921361155</v>
+        <v>0.05114676653811438</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.83041646653609</v>
+        <v>83.28466000000002</v>
       </c>
       <c r="H9">
-        <v>82.83041646653609</v>
+        <v>249.85398</v>
       </c>
       <c r="I9">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="J9">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N9">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q9">
-        <v>8794.560467129102</v>
+        <v>8854.364153891562</v>
       </c>
       <c r="R9">
-        <v>8794.560467129102</v>
+        <v>79689.27738502405</v>
       </c>
       <c r="S9">
-        <v>0.06680112790094883</v>
+        <v>0.04832883513214408</v>
       </c>
       <c r="T9">
-        <v>0.06680112790094883</v>
+        <v>0.04832883513214409</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>82.83041646653609</v>
+        <v>83.28466000000002</v>
       </c>
       <c r="H10">
-        <v>82.83041646653609</v>
+        <v>249.85398</v>
       </c>
       <c r="I10">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="J10">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N10">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q10">
-        <v>10259.74293270538</v>
+        <v>10384.90211927386</v>
       </c>
       <c r="R10">
-        <v>10259.74293270538</v>
+        <v>93464.1190734647</v>
       </c>
       <c r="S10">
-        <v>0.07793026182947356</v>
+        <v>0.05668280789708149</v>
       </c>
       <c r="T10">
-        <v>0.07793026182947356</v>
+        <v>0.05668280789708149</v>
       </c>
     </row>
   </sheetData>
